--- a/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
+++ b/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
@@ -18,9 +18,8 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -5594,7 +5593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -6060,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G204" sqref="G204"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12549,8 +12548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
+      <selection activeCell="O191" sqref="O191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
+++ b/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="8" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -5593,7 +5593,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -12548,8 +12548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="O191" sqref="O191"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
+++ b/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>loc_id</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Label</t>
+  </si>
+  <si>
+    <t>percentage</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -709,12 +712,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Label Aggregation Statistics (Loc)</a:t>
+              <a:t>Label Aggregation Statistics (Location Level)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1300">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -733,7 +736,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -772,7 +775,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -780,6 +785,229 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2BB862B4-0F59-42E4-8182-6D7F60FCEDC5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-2340-40A3-9795-AF0F5BDED7A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0445D696-E9FC-4E52-9279-5D2B43498C07}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-2340-40A3-9795-AF0F5BDED7A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F2CD2B3F-253A-4215-A9F7-2E88046BB9E2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2340-40A3-9795-AF0F5BDED7A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{817DAADD-AC0D-47DF-A679-9A12D0E144E6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-2340-40A3-9795-AF0F5BDED7A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{15C1AD44-EC60-498B-9E9D-F3092A2D3384}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2340-40A3-9795-AF0F5BDED7A9}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="700" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>graph!$B$3:$B$7</c:f>
@@ -805,6 +1033,29 @@
             </c:numRef>
           </c:val>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>graph!$C$3:$C$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>2%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>34.8%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>31.8%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>29.4%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9DEB-4705-8E58-C9BE2E6243A1}"/>
             </c:ext>
@@ -1094,12 +1345,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Variance of each location label (sorted)</a:t>
+              <a:t>Variance of each location attractiveness label (sorted)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="1400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -1157,7 +1408,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1804,6 +2057,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>images ordered by variance of attractiveness votes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1000">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1845,6 +2158,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -1868,6 +2182,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>variance</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3052,15 +3421,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>124587</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14097</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3093,8 +3462,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>241935</xdr:colOff>
       <xdr:row>136</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -5593,7 +5962,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -12548,8 +12917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N128" sqref="N128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12566,6 +12935,9 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
       <c r="M2" s="5">
         <v>0</v>
       </c>
@@ -12577,6 +12949,10 @@
       <c r="B3" s="1">
         <v>4</v>
       </c>
+      <c r="C3" t="str">
+        <f>ROUND(B3/SUM($B$3:$B$7)*100,1)&amp;"%"</f>
+        <v>2%</v>
+      </c>
       <c r="M3" s="6">
         <v>0</v>
       </c>
@@ -12588,6 +12964,10 @@
       <c r="B4" s="1">
         <v>70</v>
       </c>
+      <c r="C4" t="str">
+        <f t="shared" ref="C4:C7" si="0">ROUND(B4/SUM($B$3:$B$7)*100,1)&amp;"%"</f>
+        <v>34.8%</v>
+      </c>
       <c r="M4" s="5">
         <v>0</v>
       </c>
@@ -12598,6 +12978,10 @@
       </c>
       <c r="B5" s="1">
         <v>64</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>31.8%</v>
       </c>
       <c r="M5" s="6">
         <v>0</v>
@@ -12610,6 +12994,10 @@
       <c r="B6" s="1">
         <v>59</v>
       </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>29.4%</v>
+      </c>
       <c r="M6" s="5">
         <v>0</v>
       </c>
@@ -12620,6 +13008,10 @@
       </c>
       <c r="B7" s="1">
         <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>2%</v>
       </c>
       <c r="M7" s="6">
         <v>0</v>

--- a/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
+++ b/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="3" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>loc_id</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>percentage</t>
+  </si>
+  <si>
+    <t>attractiveness label</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
               <a:rPr lang="en-US" sz="1300" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Label Aggregation Statistics (Location Level)</a:t>
+              <a:t>Attractiveness Label Aggregation Statistics (Location Level)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1300">
               <a:effectLst/>
@@ -768,7 +771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
+                  <c:v>attractiveness label</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -793,7 +796,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2BB862B4-0F59-42E4-8182-6D7F60FCEDC5}" type="CELLRANGE">
+                    <a:fld id="{7741262D-A679-493F-BB71-871AFE17FA94}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -826,7 +829,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0445D696-E9FC-4E52-9279-5D2B43498C07}" type="CELLRANGE">
+                    <a:fld id="{9AAD3549-92F6-42D2-8CEB-87CC43CD70CB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -859,7 +862,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F2CD2B3F-253A-4215-A9F7-2E88046BB9E2}" type="CELLRANGE">
+                    <a:fld id="{6DB55D2E-FB7E-4E7C-8B0D-9FFF1B2E8A24}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -892,7 +895,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{817DAADD-AC0D-47DF-A679-9A12D0E144E6}" type="CELLRANGE">
+                    <a:fld id="{7BB0ABE0-AAB6-4402-B1BE-3F1ABB756C0C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -925,7 +928,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{15C1AD44-EC60-498B-9E9D-F3092A2D3384}" type="CELLRANGE">
+                    <a:fld id="{61331C3B-A110-4AEA-916B-A7CE40F90827}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3426,10 +3429,10 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>124587</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>14097</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>532667</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5962,7 +5965,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -12917,8 +12920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N128" sqref="N128"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12933,10 +12936,14 @@
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
+      </c>
+      <c r="K2">
+        <f>40/201</f>
+        <v>0.19900497512437812</v>
       </c>
       <c r="M2" s="5">
         <v>0</v>

--- a/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
+++ b/Analysis/CrowdData/pilot_aggregates_part2_analysis.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7485" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="pivot" sheetId="2" r:id="rId1"/>
     <sheet name="pilot_aggregates_part2" sheetId="1" r:id="rId2"/>
     <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="CrowdFlower" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId4"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>loc_id</t>
   </si>
@@ -72,6 +73,18 @@
   </si>
   <si>
     <t>attractiveness label</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>locations with lowest variance</t>
+  </si>
+  <si>
+    <t>variance range from low to high</t>
   </si>
 </sst>
 </file>
@@ -611,7 +624,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -623,6 +636,9 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -796,7 +812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7741262D-A679-493F-BB71-871AFE17FA94}" type="CELLRANGE">
+                    <a:fld id="{BBABCA77-BD47-439D-98BE-D0CD51AACD45}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -829,7 +845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AAD3549-92F6-42D2-8CEB-87CC43CD70CB}" type="CELLRANGE">
+                    <a:fld id="{04BDB0FC-DB12-4443-B70A-D2525C7B1754}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -862,7 +878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DB55D2E-FB7E-4E7C-8B0D-9FFF1B2E8A24}" type="CELLRANGE">
+                    <a:fld id="{147CB24E-E95A-4706-8FC8-38ACEA9CFEE2}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -895,7 +911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7BB0ABE0-AAB6-4402-B1BE-3F1ABB756C0C}" type="CELLRANGE">
+                    <a:fld id="{C70CAD14-FC3F-4C53-A4AB-40E4B2474008}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -928,7 +944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{61331C3B-A110-4AEA-916B-A7CE40F90827}" type="CELLRANGE">
+                    <a:fld id="{73F18659-9EB7-4647-B593-A0AC30C23938}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -5965,7 +5981,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -6032,9 +6048,10 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J202" totalsRowShown="0">
   <autoFilter ref="A1:J202">
-    <filterColumn colId="0">
+    <filterColumn colId="3">
       <filters>
-        <filter val="594"/>
+        <filter val="1"/>
+        <filter val="5"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -6431,8 +6448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="N201" sqref="N201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6476,7 +6493,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>201</v>
       </c>
@@ -6508,7 +6525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>308</v>
       </c>
@@ -6540,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>310</v>
       </c>
@@ -6572,7 +6589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>51</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>418</v>
       </c>
@@ -6636,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>429</v>
       </c>
@@ -6668,7 +6685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>437</v>
       </c>
@@ -6700,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>329</v>
       </c>
@@ -6732,7 +6749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>337</v>
       </c>
@@ -6764,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>615</v>
       </c>
@@ -6796,7 +6813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>641</v>
       </c>
@@ -6828,7 +6845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>203</v>
       </c>
@@ -6860,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>221</v>
       </c>
@@ -6892,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>272</v>
       </c>
@@ -6924,7 +6941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>30</v>
       </c>
@@ -6956,7 +6973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>34</v>
       </c>
@@ -6988,7 +7005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>402</v>
       </c>
@@ -7020,7 +7037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>407</v>
       </c>
@@ -7052,7 +7069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>415</v>
       </c>
@@ -7084,7 +7101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>453</v>
       </c>
@@ -7116,7 +7133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>432</v>
       </c>
@@ -7148,7 +7165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>436</v>
       </c>
@@ -7180,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>684</v>
       </c>
@@ -7212,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>587</v>
       </c>
@@ -7244,7 +7261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>589</v>
       </c>
@@ -7276,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>610</v>
       </c>
@@ -7308,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>623</v>
       </c>
@@ -7340,7 +7357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>217</v>
       </c>
@@ -7372,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>324</v>
       </c>
@@ -7404,7 +7421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>650</v>
       </c>
@@ -7436,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>213</v>
       </c>
@@ -7468,7 +7485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>215</v>
       </c>
@@ -7500,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>216</v>
       </c>
@@ -7532,7 +7549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>222</v>
       </c>
@@ -7564,7 +7581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>225</v>
       </c>
@@ -7596,7 +7613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>274</v>
       </c>
@@ -7628,7 +7645,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -7660,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>26</v>
       </c>
@@ -7692,7 +7709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>61</v>
       </c>
@@ -7724,7 +7741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>93</v>
       </c>
@@ -7756,7 +7773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>414</v>
       </c>
@@ -7788,7 +7805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>425</v>
       </c>
@@ -7820,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>428</v>
       </c>
@@ -7852,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>434</v>
       </c>
@@ -7884,7 +7901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>479</v>
       </c>
@@ -7916,7 +7933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>326</v>
       </c>
@@ -7948,7 +7965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>330</v>
       </c>
@@ -7980,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>331</v>
       </c>
@@ -8012,7 +8029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>335</v>
       </c>
@@ -8044,7 +8061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>336</v>
       </c>
@@ -8076,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>338</v>
       </c>
@@ -8108,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>344</v>
       </c>
@@ -8140,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>507</v>
       </c>
@@ -8172,7 +8189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>529</v>
       </c>
@@ -8204,7 +8221,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>646</v>
       </c>
@@ -8236,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>653</v>
       </c>
@@ -8268,7 +8285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>666</v>
       </c>
@@ -8300,7 +8317,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>669</v>
       </c>
@@ -8332,7 +8349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>675</v>
       </c>
@@ -8364,7 +8381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>685</v>
       </c>
@@ -8396,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>687</v>
       </c>
@@ -8428,7 +8445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>699</v>
       </c>
@@ -8460,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>569</v>
       </c>
@@ -8492,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>595</v>
       </c>
@@ -8524,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>606</v>
       </c>
@@ -8556,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>607</v>
       </c>
@@ -8588,7 +8605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>628</v>
       </c>
@@ -8620,7 +8637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>640</v>
       </c>
@@ -8652,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>208</v>
       </c>
@@ -8684,7 +8701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>210</v>
       </c>
@@ -8716,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>311</v>
       </c>
@@ -8748,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>405</v>
       </c>
@@ -8780,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>422</v>
       </c>
@@ -8812,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>430</v>
       </c>
@@ -8844,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>465</v>
       </c>
@@ -8876,7 +8893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>466</v>
       </c>
@@ -8908,7 +8925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>346</v>
       </c>
@@ -8940,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>515</v>
       </c>
@@ -8972,7 +8989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>516</v>
       </c>
@@ -9004,7 +9021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>520</v>
       </c>
@@ -9036,7 +9053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>655</v>
       </c>
@@ -9068,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>548</v>
       </c>
@@ -9100,7 +9117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>567</v>
       </c>
@@ -9132,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>634</v>
       </c>
@@ -9164,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>644</v>
       </c>
@@ -9196,7 +9213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>209</v>
       </c>
@@ -9228,7 +9245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>223</v>
       </c>
@@ -9260,7 +9277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>229</v>
       </c>
@@ -9292,7 +9309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>313</v>
       </c>
@@ -9324,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>6</v>
       </c>
@@ -9356,7 +9373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>13</v>
       </c>
@@ -9388,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>75</v>
       </c>
@@ -9420,7 +9437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>409</v>
       </c>
@@ -9452,7 +9469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>416</v>
       </c>
@@ -9484,7 +9501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>421</v>
       </c>
@@ -9516,7 +9533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>426</v>
       </c>
@@ -9548,7 +9565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>427</v>
       </c>
@@ -9580,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>443</v>
       </c>
@@ -9612,7 +9629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>323</v>
       </c>
@@ -9644,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>334</v>
       </c>
@@ -9676,7 +9693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>497</v>
       </c>
@@ -9708,7 +9725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>512</v>
       </c>
@@ -9740,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>514</v>
       </c>
@@ -9772,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>523</v>
       </c>
@@ -9804,7 +9821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>654</v>
       </c>
@@ -9836,7 +9853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>662</v>
       </c>
@@ -9868,7 +9885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>536</v>
       </c>
@@ -9900,7 +9917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="8">
         <v>540</v>
       </c>
@@ -9932,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8">
         <v>559</v>
       </c>
@@ -9964,7 +9981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8">
         <v>578</v>
       </c>
@@ -9996,7 +10013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8">
         <v>579</v>
       </c>
@@ -10028,7 +10045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8">
         <v>599</v>
       </c>
@@ -10060,7 +10077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8">
         <v>611</v>
       </c>
@@ -10092,7 +10109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8">
         <v>612</v>
       </c>
@@ -10124,7 +10141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8">
         <v>624</v>
       </c>
@@ -10156,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8">
         <v>454</v>
       </c>
@@ -10188,7 +10205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8">
         <v>476</v>
       </c>
@@ -10220,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8">
         <v>322</v>
       </c>
@@ -10252,7 +10269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8">
         <v>527</v>
       </c>
@@ -10284,7 +10301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8">
         <v>9999</v>
       </c>
@@ -10316,7 +10333,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>202</v>
       </c>
@@ -10348,7 +10365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8">
         <v>205</v>
       </c>
@@ -10380,7 +10397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>220</v>
       </c>
@@ -10412,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>224</v>
       </c>
@@ -10444,7 +10461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>253</v>
       </c>
@@ -10476,7 +10493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8">
         <v>2</v>
       </c>
@@ -10508,7 +10525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="8">
         <v>25</v>
       </c>
@@ -10540,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8">
         <v>40</v>
       </c>
@@ -10572,7 +10589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="8">
         <v>43</v>
       </c>
@@ -10604,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="8">
         <v>473</v>
       </c>
@@ -10636,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="8">
         <v>481</v>
       </c>
@@ -10668,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8">
         <v>328</v>
       </c>
@@ -10700,7 +10717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8">
         <v>342</v>
       </c>
@@ -10732,7 +10749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8">
         <v>508</v>
       </c>
@@ -10764,7 +10781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8">
         <v>511</v>
       </c>
@@ -10796,7 +10813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="8">
         <v>530</v>
       </c>
@@ -10828,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="8">
         <v>668</v>
       </c>
@@ -10860,7 +10877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="8">
         <v>670</v>
       </c>
@@ -10892,7 +10909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="8">
         <v>673</v>
       </c>
@@ -10924,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="8">
         <v>686</v>
       </c>
@@ -10956,7 +10973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>689</v>
       </c>
@@ -10988,7 +11005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8">
         <v>539</v>
       </c>
@@ -11020,7 +11037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>547</v>
       </c>
@@ -11052,7 +11069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>555</v>
       </c>
@@ -11084,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>570</v>
       </c>
@@ -11116,7 +11133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8">
         <v>582</v>
       </c>
@@ -11148,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="8">
         <v>600</v>
       </c>
@@ -11180,7 +11197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="8">
         <v>620</v>
       </c>
@@ -11212,7 +11229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="8">
         <v>252</v>
       </c>
@@ -11244,7 +11261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="8">
         <v>307</v>
       </c>
@@ -11276,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="8">
         <v>35</v>
       </c>
@@ -11308,7 +11325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="8">
         <v>64</v>
       </c>
@@ -11340,7 +11357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="8">
         <v>444</v>
       </c>
@@ -11372,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="8">
         <v>333</v>
       </c>
@@ -11404,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="8">
         <v>492</v>
       </c>
@@ -11436,7 +11453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="8">
         <v>496</v>
       </c>
@@ -11468,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="8">
         <v>500</v>
       </c>
@@ -11500,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="8">
         <v>517</v>
       </c>
@@ -11532,7 +11549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="8">
         <v>533</v>
       </c>
@@ -11564,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="8">
         <v>681</v>
       </c>
@@ -11596,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>598</v>
       </c>
@@ -11628,7 +11645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="8">
         <v>15</v>
       </c>
@@ -11660,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>28</v>
       </c>
@@ -11692,7 +11709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>52</v>
       </c>
@@ -11724,7 +11741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>459</v>
       </c>
@@ -11756,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="8">
         <v>343</v>
       </c>
@@ -11788,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="8">
         <v>345</v>
       </c>
@@ -11820,7 +11837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="8">
         <v>499</v>
       </c>
@@ -11852,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="8">
         <v>649</v>
       </c>
@@ -11884,7 +11901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="8">
         <v>556</v>
       </c>
@@ -11916,7 +11933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="8">
         <v>642</v>
       </c>
@@ -11948,7 +11965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="8">
         <v>212</v>
       </c>
@@ -11980,7 +11997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="8">
         <v>228</v>
       </c>
@@ -12012,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="8">
         <v>251</v>
       </c>
@@ -12044,7 +12061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="8">
         <v>304</v>
       </c>
@@ -12076,7 +12093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="8">
         <v>314</v>
       </c>
@@ -12108,7 +12125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="8">
         <v>21</v>
       </c>
@@ -12140,7 +12157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="8">
         <v>438</v>
       </c>
@@ -12172,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="8">
         <v>341</v>
       </c>
@@ -12204,7 +12221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="8">
         <v>503</v>
       </c>
@@ -12236,7 +12253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="8">
         <v>602</v>
       </c>
@@ -12268,7 +12285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="8">
         <v>561</v>
       </c>
@@ -12300,7 +12317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="8">
         <v>277</v>
       </c>
@@ -12332,7 +12349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="8">
         <v>315</v>
       </c>
@@ -12364,7 +12381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="8">
         <v>320</v>
       </c>
@@ -12396,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="8">
         <v>448</v>
       </c>
@@ -12428,7 +12445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="8">
         <v>472</v>
       </c>
@@ -12460,7 +12477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="8">
         <v>484</v>
       </c>
@@ -12492,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="8">
         <v>564</v>
       </c>
@@ -12524,7 +12541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8">
         <v>226</v>
       </c>
@@ -12556,7 +12573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="8">
         <v>467</v>
       </c>
@@ -12588,7 +12605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="8">
         <v>206</v>
       </c>
@@ -12620,7 +12637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="8">
         <v>273</v>
       </c>
@@ -12652,7 +12669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="8">
         <v>439</v>
       </c>
@@ -12684,7 +12701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="8">
         <v>319</v>
       </c>
@@ -12716,7 +12733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="8">
         <v>538</v>
       </c>
@@ -12748,7 +12765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="8">
         <v>271</v>
       </c>
@@ -12780,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="8">
         <v>594</v>
       </c>
@@ -12812,7 +12829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="200" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="8">
         <v>449</v>
       </c>
@@ -12844,7 +12861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="201" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" s="8">
         <v>477</v>
       </c>
@@ -12876,7 +12893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="8">
         <v>485</v>
       </c>
@@ -12920,8 +12937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14010,4 +14027,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f>SUM(A4:E4)</f>
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>SUM(A5:E5)</f>
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>